--- a/raw_data/KEEN ONE/Byrnes/2014/NW Shoals Entry 2014/NW Shoals Logger Info 2014.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2014/NW Shoals Entry 2014/NW Shoals Logger Info 2014.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1700" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Changelog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Latitude</t>
   </si>
@@ -27,54 +29,143 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Date Deployed</t>
-  </si>
-  <si>
     <t>Samples/Hr</t>
   </si>
   <si>
-    <t>Date Retrieved</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Logger 1</t>
-  </si>
-  <si>
-    <t>2/ hour</t>
-  </si>
-  <si>
-    <t>loggers within ~ 1.5 m along a small (~0.5-1 m wieght ridge)</t>
-  </si>
-  <si>
-    <t>Logger 2</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>Site</t>
   </si>
   <si>
+    <t>Logger</t>
+  </si>
+  <si>
+    <t>Logger ID</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 1</t>
+  </si>
+  <si>
+    <t>Retrieved Logger 2</t>
+  </si>
+  <si>
+    <t>Deployed Logger 1</t>
+  </si>
+  <si>
+    <t>Deployed Logger 2</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Added DMY</t>
+  </si>
+  <si>
+    <t>Fixed logger names</t>
+  </si>
+  <si>
+    <t>Removed excess date columns</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Decimal Degrees</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>What region is this from?</t>
+  </si>
+  <si>
+    <t>Site Name</t>
+  </si>
+  <si>
+    <t>What kind of logger is this?</t>
+  </si>
+  <si>
+    <t>ID number or other of logger</t>
+  </si>
+  <si>
+    <t>Month of deployment or retrieval</t>
+  </si>
+  <si>
+    <t>Day of deployment or retrieval</t>
+  </si>
+  <si>
+    <t>Year of deployment or retrieval</t>
+  </si>
+  <si>
+    <t>Latitude (WGS84) where loggers are located</t>
+  </si>
+  <si>
+    <t>Longitude  (WGS84) where loggers are located</t>
+  </si>
+  <si>
+    <t>If known, the sampling frequency</t>
+  </si>
+  <si>
+    <t>Any additional notes</t>
+  </si>
+  <si>
+    <t>last 3 digits = 660</t>
+  </si>
+  <si>
+    <t>last 3 digits = 661</t>
+  </si>
+  <si>
     <t>SML</t>
   </si>
   <si>
     <t>NW Appledore</t>
-  </si>
-  <si>
-    <t>Logger</t>
-  </si>
-  <si>
-    <t>Logger ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,20 +212,100 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,93 +635,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>662</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>2014</v>
+      </c>
+      <c r="H2">
+        <v>42.993069040000002</v>
+      </c>
+      <c r="I2">
+        <v>-70.613883985000001</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>663</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>2014</v>
+      </c>
+      <c r="H3">
+        <v>42.993069040000002</v>
+      </c>
+      <c r="I3">
+        <v>-70.613883985000001</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>2014</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>42907</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>42.991409003999998</v>
-      </c>
-      <c r="E2">
-        <v>-70.617746030999996</v>
-      </c>
-      <c r="F2" s="3">
-        <v>41840</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>42907</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>42.991409003999998</v>
-      </c>
-      <c r="E3">
-        <v>-70.617746030999996</v>
-      </c>
-      <c r="F3" s="3">
-        <v>41840</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>42907</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
